--- a/Code/Results/Cases/Case_5_101/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_101/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.04493362681953</v>
+        <v>1.072518403766446</v>
       </c>
       <c r="D2">
-        <v>1.057175229713196</v>
+        <v>1.071734474037006</v>
       </c>
       <c r="E2">
-        <v>1.051956917623664</v>
+        <v>1.076252960779337</v>
       </c>
       <c r="F2">
-        <v>1.060230237262167</v>
+        <v>1.086234518589867</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.070715388789459</v>
+        <v>1.06157989630607</v>
       </c>
       <c r="J2">
-        <v>1.065848688742234</v>
+        <v>1.077437545509292</v>
       </c>
       <c r="K2">
-        <v>1.067891599533759</v>
+        <v>1.074430858838986</v>
       </c>
       <c r="L2">
-        <v>1.062736928877055</v>
+        <v>1.078937380886507</v>
       </c>
       <c r="M2">
-        <v>1.07090970974021</v>
+        <v>1.088892888960647</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -456,37 +456,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.052009039220627</v>
+        <v>1.073887812894444</v>
       </c>
       <c r="D3">
-        <v>1.062861154903268</v>
+        <v>1.072835757304792</v>
       </c>
       <c r="E3">
-        <v>1.058300067795976</v>
+        <v>1.077505242709076</v>
       </c>
       <c r="F3">
-        <v>1.066968195940577</v>
+        <v>1.087588028979666</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.073956036144461</v>
+        <v>1.062110832322892</v>
       </c>
       <c r="J3">
-        <v>1.071175744198593</v>
+        <v>1.078463321328203</v>
       </c>
       <c r="K3">
-        <v>1.072748259883684</v>
+        <v>1.075348049449877</v>
       </c>
       <c r="L3">
-        <v>1.068237615281675</v>
+        <v>1.080006068472967</v>
       </c>
       <c r="M3">
-        <v>1.076810332831422</v>
+        <v>1.090064456341428</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -494,37 +494,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.056453711611253</v>
+        <v>1.074772557995499</v>
       </c>
       <c r="D4">
-        <v>1.066434813717756</v>
+        <v>1.073547145343367</v>
       </c>
       <c r="E4">
-        <v>1.062285377386824</v>
+        <v>1.078314015975194</v>
       </c>
       <c r="F4">
-        <v>1.071205092727206</v>
+        <v>1.088462685324938</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.075979787547361</v>
+        <v>1.062452409196289</v>
       </c>
       <c r="J4">
-        <v>1.074515831133253</v>
+        <v>1.079125210988189</v>
       </c>
       <c r="K4">
-        <v>1.075792471829217</v>
+        <v>1.07593972395369</v>
       </c>
       <c r="L4">
-        <v>1.071685987602447</v>
+        <v>1.080695480968981</v>
       </c>
       <c r="M4">
-        <v>1.080513873207213</v>
+        <v>1.090820836773028</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -532,37 +532,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.058291971388569</v>
+        <v>1.075144186420541</v>
       </c>
       <c r="D5">
-        <v>1.067913204574545</v>
+        <v>1.073845925778154</v>
       </c>
       <c r="E5">
-        <v>1.063933750649424</v>
+        <v>1.078653661465731</v>
       </c>
       <c r="F5">
-        <v>1.072958378319185</v>
+        <v>1.088830119571593</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.076813872060731</v>
+        <v>1.062595538018972</v>
       </c>
       <c r="J5">
-        <v>1.075895697944716</v>
+        <v>1.079403029489043</v>
       </c>
       <c r="K5">
-        <v>1.077049869784742</v>
+        <v>1.076188034622841</v>
       </c>
       <c r="L5">
-        <v>1.073110448366434</v>
+        <v>1.08098481206655</v>
       </c>
       <c r="M5">
-        <v>1.082044808611549</v>
+        <v>1.09113841655431</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -570,37 +570,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.05859889460133</v>
+        <v>1.075206565963697</v>
       </c>
       <c r="D6">
-        <v>1.068160062482319</v>
+        <v>1.073896075607804</v>
       </c>
       <c r="E6">
-        <v>1.064208974089982</v>
+        <v>1.078710668312866</v>
       </c>
       <c r="F6">
-        <v>1.073251168911677</v>
+        <v>1.0888917976445</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.076952961694545</v>
+        <v>1.062619542485075</v>
       </c>
       <c r="J6">
-        <v>1.076125993700958</v>
+        <v>1.079449650768316</v>
       </c>
       <c r="K6">
-        <v>1.077259711626783</v>
+        <v>1.076229702013603</v>
       </c>
       <c r="L6">
-        <v>1.073348178375212</v>
+        <v>1.081033362971675</v>
       </c>
       <c r="M6">
-        <v>1.082300371266656</v>
+        <v>1.091191716133436</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -608,37 +608,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.056478391359879</v>
+        <v>1.074777524956682</v>
       </c>
       <c r="D7">
-        <v>1.066454660630039</v>
+        <v>1.073551138785309</v>
       </c>
       <c r="E7">
-        <v>1.062307507464232</v>
+        <v>1.07831855575399</v>
       </c>
       <c r="F7">
-        <v>1.071228627914088</v>
+        <v>1.088467596058661</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.075990997216833</v>
+        <v>1.062454323534629</v>
       </c>
       <c r="J7">
-        <v>1.074534362867784</v>
+        <v>1.079128924935703</v>
       </c>
       <c r="K7">
-        <v>1.075809359745982</v>
+        <v>1.075943043575092</v>
       </c>
       <c r="L7">
-        <v>1.071705118798856</v>
+        <v>1.080699348975789</v>
       </c>
       <c r="M7">
-        <v>1.080534430172541</v>
+        <v>1.090825081865265</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -646,37 +646,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.047353525742453</v>
+        <v>1.072981485868489</v>
       </c>
       <c r="D8">
-        <v>1.059119469035953</v>
+        <v>1.072106912035172</v>
       </c>
       <c r="E8">
-        <v>1.054126204768533</v>
+        <v>1.076676496643899</v>
       </c>
       <c r="F8">
-        <v>1.062533801725905</v>
+        <v>1.086692186202848</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.071826241652988</v>
+        <v>1.061759738929664</v>
       </c>
       <c r="J8">
-        <v>1.067671924886132</v>
+        <v>1.077784598173006</v>
       </c>
       <c r="K8">
-        <v>1.069554028624949</v>
+        <v>1.074741204604064</v>
       </c>
       <c r="L8">
-        <v>1.064619713752768</v>
+        <v>1.079298986533322</v>
       </c>
       <c r="M8">
-        <v>1.072928446888405</v>
+        <v>1.089289181016534</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -684,37 +684,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.030166791463777</v>
+        <v>1.069806004645033</v>
       </c>
       <c r="D9">
-        <v>1.045322183857735</v>
+        <v>1.069552508372835</v>
       </c>
       <c r="E9">
-        <v>1.03872451442325</v>
+        <v>1.07377097695237</v>
       </c>
       <c r="F9">
-        <v>1.046193827641381</v>
+        <v>1.083554599238296</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.063886676677208</v>
+        <v>1.060520557561419</v>
       </c>
       <c r="J9">
-        <v>1.054697479333945</v>
+        <v>1.075401311360129</v>
       </c>
       <c r="K9">
-        <v>1.057720376257274</v>
+        <v>1.072609382870748</v>
       </c>
       <c r="L9">
-        <v>1.051219072768088</v>
+        <v>1.076815071582798</v>
       </c>
       <c r="M9">
-        <v>1.058579403961513</v>
+        <v>1.086569471428186</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -722,37 +722,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.017832014744874</v>
+        <v>1.067681504702727</v>
       </c>
       <c r="D10">
-        <v>1.035438369798392</v>
+        <v>1.06784293774621</v>
       </c>
       <c r="E10">
-        <v>1.027680465876389</v>
+        <v>1.071825569370158</v>
       </c>
       <c r="F10">
-        <v>1.034496047731456</v>
+        <v>1.081456427884367</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.058126513891972</v>
+        <v>1.059684032647645</v>
       </c>
       <c r="J10">
-        <v>1.045355574519779</v>
+        <v>1.073802486140461</v>
       </c>
       <c r="K10">
-        <v>1.049195954423603</v>
+        <v>1.071178494396455</v>
       </c>
       <c r="L10">
-        <v>1.041567301568039</v>
+        <v>1.075147868078263</v>
       </c>
       <c r="M10">
-        <v>1.048269198849134</v>
+        <v>1.084747108415519</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -760,37 +760,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>1.012248422178652</v>
+        <v>1.066759709130938</v>
       </c>
       <c r="D11">
-        <v>1.030970077578212</v>
+        <v>1.067101044037986</v>
       </c>
       <c r="E11">
-        <v>1.022684538134128</v>
+        <v>1.070981122375452</v>
       </c>
       <c r="F11">
-        <v>1.029208851726335</v>
+        <v>1.080546291927055</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.055505054879491</v>
+        <v>1.059319304154323</v>
       </c>
       <c r="J11">
-        <v>1.041120382969075</v>
+        <v>1.073107750589969</v>
       </c>
       <c r="K11">
-        <v>1.04533065899631</v>
+        <v>1.070556554809427</v>
       </c>
       <c r="L11">
-        <v>1.037190972302874</v>
+        <v>1.074423211847766</v>
       </c>
       <c r="M11">
-        <v>1.043600181920666</v>
+        <v>1.083955747728346</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -798,37 +798,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>1.010134597739448</v>
+        <v>1.066417024672263</v>
       </c>
       <c r="D12">
-        <v>1.029279494616019</v>
+        <v>1.066825220532879</v>
       </c>
       <c r="E12">
-        <v>1.020793806882212</v>
+        <v>1.070667139389561</v>
       </c>
       <c r="F12">
-        <v>1.027208550676897</v>
+        <v>1.080207977841417</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.054510594373508</v>
+        <v>1.05918344780693</v>
       </c>
       <c r="J12">
-        <v>1.039516151241938</v>
+        <v>1.07284932377171</v>
       </c>
       <c r="K12">
-        <v>1.043866451910391</v>
+        <v>1.070325180092357</v>
       </c>
       <c r="L12">
-        <v>1.035533186529611</v>
+        <v>1.074153623743958</v>
       </c>
       <c r="M12">
-        <v>1.041832405221499</v>
+        <v>1.083661454673407</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -836,37 +836,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>1.010589881806763</v>
+        <v>1.066490544823996</v>
       </c>
       <c r="D13">
-        <v>1.029643571099058</v>
+        <v>1.066884397056838</v>
       </c>
       <c r="E13">
-        <v>1.021201010572898</v>
+        <v>1.070734504288631</v>
       </c>
       <c r="F13">
-        <v>1.027639322489753</v>
+        <v>1.08028055873841</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.054724875915559</v>
+        <v>1.059212606699472</v>
       </c>
       <c r="J13">
-        <v>1.039861715643835</v>
+        <v>1.072904774082825</v>
       </c>
       <c r="K13">
-        <v>1.044181857455413</v>
+        <v>1.070374827062022</v>
       </c>
       <c r="L13">
-        <v>1.035890290993414</v>
+        <v>1.074211470341856</v>
       </c>
       <c r="M13">
-        <v>1.042213163101006</v>
+        <v>1.08372459730911</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -874,37 +874,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>1.012074526446648</v>
+        <v>1.066731388654238</v>
       </c>
       <c r="D14">
-        <v>1.030830978800318</v>
+        <v>1.067078249533466</v>
       </c>
       <c r="E14">
-        <v>1.0225289822152</v>
+        <v>1.070955174963404</v>
       </c>
       <c r="F14">
-        <v>1.029044267806499</v>
+        <v>1.080518331898399</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.055423285482845</v>
+        <v>1.059308081995592</v>
       </c>
       <c r="J14">
-        <v>1.040988426765541</v>
+        <v>1.073086396550685</v>
       </c>
       <c r="K14">
-        <v>1.045210222168593</v>
+        <v>1.070537436647543</v>
       </c>
       <c r="L14">
-        <v>1.037054612854912</v>
+        <v>1.074400936183084</v>
       </c>
       <c r="M14">
-        <v>1.043454757411612</v>
+        <v>1.083931428475725</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -912,37 +912,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>1.012983878471603</v>
+        <v>1.066879742038351</v>
       </c>
       <c r="D15">
-        <v>1.03155840934565</v>
+        <v>1.067197655012168</v>
       </c>
       <c r="E15">
-        <v>1.023342455665695</v>
+        <v>1.071091095149668</v>
       </c>
       <c r="F15">
-        <v>1.029904979684105</v>
+        <v>1.080664798587898</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.055850799519447</v>
+        <v>1.059366857034231</v>
       </c>
       <c r="J15">
-        <v>1.041678429274349</v>
+        <v>1.07319825080861</v>
       </c>
       <c r="K15">
-        <v>1.045839986149397</v>
+        <v>1.070637578109974</v>
       </c>
       <c r="L15">
-        <v>1.037767636304568</v>
+        <v>1.074517616705372</v>
       </c>
       <c r="M15">
-        <v>1.044215217869995</v>
+        <v>1.08405881789128</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -950,37 +950,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.018197189491061</v>
+        <v>1.067742641167735</v>
       </c>
       <c r="D16">
-        <v>1.035730734134257</v>
+        <v>1.067892139843755</v>
       </c>
       <c r="E16">
-        <v>1.028007285374325</v>
+        <v>1.071881568323864</v>
       </c>
       <c r="F16">
-        <v>1.034842012804671</v>
+        <v>1.081516796045176</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.058297676904689</v>
+        <v>1.059708185370366</v>
       </c>
       <c r="J16">
-        <v>1.045632436133553</v>
+        <v>1.073848541710122</v>
       </c>
       <c r="K16">
-        <v>1.049448622215156</v>
+        <v>1.071219720444573</v>
       </c>
       <c r="L16">
-        <v>1.041853376439638</v>
+        <v>1.075195902761954</v>
       </c>
       <c r="M16">
-        <v>1.048574527592464</v>
+        <v>1.084799580167481</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -988,37 +988,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.021400162069531</v>
+        <v>1.068283408497727</v>
       </c>
       <c r="D17">
-        <v>1.038295753605108</v>
+        <v>1.068327329676091</v>
       </c>
       <c r="E17">
-        <v>1.030874235479957</v>
+        <v>1.072376851859118</v>
       </c>
       <c r="F17">
-        <v>1.037877415274309</v>
+        <v>1.082050794807497</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.059797387270459</v>
+        <v>1.05992161799101</v>
       </c>
       <c r="J17">
-        <v>1.048060096299658</v>
+        <v>1.074255796597578</v>
       </c>
       <c r="K17">
-        <v>1.051664060786164</v>
+        <v>1.071584248966395</v>
       </c>
       <c r="L17">
-        <v>1.044361749351414</v>
+        <v>1.075620634289883</v>
       </c>
       <c r="M17">
-        <v>1.051252383827137</v>
+        <v>1.085263629947494</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1026,37 +1026,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.023245249302927</v>
+        <v>1.068598648692313</v>
       </c>
       <c r="D18">
-        <v>1.039773882133347</v>
+        <v>1.068581010806738</v>
       </c>
       <c r="E18">
-        <v>1.032526066326933</v>
+        <v>1.072665542816394</v>
       </c>
       <c r="F18">
-        <v>1.039626721476461</v>
+        <v>1.082362111980109</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.060659982221964</v>
+        <v>1.060045867889656</v>
       </c>
       <c r="J18">
-        <v>1.049457956044399</v>
+        <v>1.074493107040401</v>
       </c>
       <c r="K18">
-        <v>1.052939653860206</v>
+        <v>1.071796645346099</v>
       </c>
       <c r="L18">
-        <v>1.045806021678748</v>
+        <v>1.075868108448335</v>
       </c>
       <c r="M18">
-        <v>1.052794791356385</v>
+        <v>1.085534084162106</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1064,37 +1064,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.023870545369464</v>
+        <v>1.068706107095043</v>
       </c>
       <c r="D19">
-        <v>1.040274903932052</v>
+        <v>1.068667482912433</v>
       </c>
       <c r="E19">
-        <v>1.033085917997781</v>
+        <v>1.072763945317337</v>
       </c>
       <c r="F19">
-        <v>1.040219681606289</v>
+        <v>1.082468236952684</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.060952087907023</v>
+        <v>1.060088192987352</v>
       </c>
       <c r="J19">
-        <v>1.049931582884433</v>
+        <v>1.074573984167787</v>
       </c>
       <c r="K19">
-        <v>1.05337184179498</v>
+        <v>1.071869028673827</v>
       </c>
       <c r="L19">
-        <v>1.046295363449684</v>
+        <v>1.075952446046704</v>
       </c>
       <c r="M19">
-        <v>1.053317476125763</v>
+        <v>1.085626265238113</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1102,37 +1102,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.021058931322291</v>
+        <v>1.068225407977327</v>
       </c>
       <c r="D20">
-        <v>1.038022430840995</v>
+        <v>1.068280654278549</v>
       </c>
       <c r="E20">
-        <v>1.030568770071632</v>
+        <v>1.072323733311102</v>
       </c>
       <c r="F20">
-        <v>1.03755395821641</v>
+        <v>1.081993517903728</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.059637751400589</v>
+        <v>1.059898743718733</v>
       </c>
       <c r="J20">
-        <v>1.047801526337999</v>
+        <v>1.074212126292803</v>
       </c>
       <c r="K20">
-        <v>1.051428101502101</v>
+        <v>1.071545162015133</v>
       </c>
       <c r="L20">
-        <v>1.044094589112465</v>
+        <v>1.075575092025228</v>
       </c>
       <c r="M20">
-        <v>1.050967115184491</v>
+        <v>1.085213864409867</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1140,37 +1140,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>1.011638464492811</v>
+        <v>1.066660474171745</v>
       </c>
       <c r="D21">
-        <v>1.030482190685203</v>
+        <v>1.067021171784081</v>
       </c>
       <c r="E21">
-        <v>1.022138919578948</v>
+        <v>1.070890201773277</v>
       </c>
       <c r="F21">
-        <v>1.028631577717254</v>
+        <v>1.080448320557786</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.055218207607837</v>
+        <v>1.05927997741466</v>
       </c>
       <c r="J21">
-        <v>1.040657518714105</v>
+        <v>1.073032923549054</v>
       </c>
       <c r="K21">
-        <v>1.04490820006058</v>
+        <v>1.070489562116988</v>
       </c>
       <c r="L21">
-        <v>1.036712661264636</v>
+        <v>1.074345154816121</v>
       </c>
       <c r="M21">
-        <v>1.043090087339358</v>
+        <v>1.08387053146547</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1178,37 +1178,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>1.005482990070782</v>
+        <v>1.065674865204817</v>
       </c>
       <c r="D22">
-        <v>1.025561294204992</v>
+        <v>1.06622782957395</v>
       </c>
       <c r="E22">
-        <v>1.016634397181685</v>
+        <v>1.06998704187309</v>
       </c>
       <c r="F22">
-        <v>1.022809310895744</v>
+        <v>1.079475349333226</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.05231855000061</v>
+        <v>1.058888734635826</v>
       </c>
       <c r="J22">
-        <v>1.035984401314977</v>
+        <v>1.07228936216628</v>
       </c>
       <c r="K22">
-        <v>1.040642832959758</v>
+        <v>1.069823787059049</v>
       </c>
       <c r="L22">
-        <v>1.031883372284795</v>
+        <v>1.073569420110345</v>
       </c>
       <c r="M22">
-        <v>1.037942060219691</v>
+        <v>1.08302391716429</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1216,37 +1216,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>1.008769407032567</v>
+        <v>1.066197516137464</v>
       </c>
       <c r="D23">
-        <v>1.028187954223992</v>
+        <v>1.066648534942496</v>
       </c>
       <c r="E23">
-        <v>1.019572886735486</v>
+        <v>1.070466000738366</v>
       </c>
       <c r="F23">
-        <v>1.025917062552521</v>
+        <v>1.079991278906503</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.053867768661095</v>
+        <v>1.059096349427042</v>
       </c>
       <c r="J23">
-        <v>1.038479837255226</v>
+        <v>1.072683743736633</v>
       </c>
       <c r="K23">
-        <v>1.042920570326693</v>
+        <v>1.070176925543544</v>
       </c>
       <c r="L23">
-        <v>1.034462251912144</v>
+        <v>1.073980883550571</v>
       </c>
       <c r="M23">
-        <v>1.040690664706868</v>
+        <v>1.083472915763462</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1254,37 +1254,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.021213190105814</v>
+        <v>1.068251616472294</v>
       </c>
       <c r="D24">
-        <v>1.03814598908284</v>
+        <v>1.068301745368639</v>
       </c>
       <c r="E24">
-        <v>1.030706859607135</v>
+        <v>1.072347735912627</v>
       </c>
       <c r="F24">
-        <v>1.037700179803611</v>
+        <v>1.082019399350401</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.059709921439376</v>
+        <v>1.059909080364468</v>
       </c>
       <c r="J24">
-        <v>1.047918418885053</v>
+        <v>1.07423185974777</v>
       </c>
       <c r="K24">
-        <v>1.051534772581863</v>
+        <v>1.071562824426808</v>
       </c>
       <c r="L24">
-        <v>1.044215365287392</v>
+        <v>1.075595671431293</v>
       </c>
       <c r="M24">
-        <v>1.051096075987484</v>
+        <v>1.085236351987877</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1292,37 +1292,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.034753954649839</v>
+        <v>1.070628239895182</v>
       </c>
       <c r="D25">
-        <v>1.04900200516511</v>
+        <v>1.070214033709292</v>
       </c>
       <c r="E25">
-        <v>1.04283393808242</v>
+        <v>1.074523579055632</v>
       </c>
       <c r="F25">
-        <v>1.050550330819476</v>
+        <v>1.084366852156094</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.066016522360246</v>
+        <v>1.060842737544398</v>
       </c>
       <c r="J25">
-        <v>1.058165761670192</v>
+        <v>1.07601918444925</v>
       </c>
       <c r="K25">
-        <v>1.060884436285073</v>
+        <v>1.07316219712118</v>
       </c>
       <c r="L25">
-        <v>1.054801807251116</v>
+        <v>1.077459185516622</v>
       </c>
       <c r="M25">
-        <v>1.062411513464935</v>
+        <v>1.087274184320544</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_101/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_101/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.072518403766446</v>
+        <v>1.04493362681953</v>
       </c>
       <c r="D2">
-        <v>1.071734474037006</v>
+        <v>1.057175229713196</v>
       </c>
       <c r="E2">
-        <v>1.076252960779337</v>
+        <v>1.051956917623664</v>
       </c>
       <c r="F2">
-        <v>1.086234518589867</v>
+        <v>1.060230237262168</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.06157989630607</v>
+        <v>1.070715388789458</v>
       </c>
       <c r="J2">
-        <v>1.077437545509292</v>
+        <v>1.065848688742234</v>
       </c>
       <c r="K2">
-        <v>1.074430858838986</v>
+        <v>1.067891599533759</v>
       </c>
       <c r="L2">
-        <v>1.078937380886507</v>
+        <v>1.062736928877055</v>
       </c>
       <c r="M2">
-        <v>1.088892888960647</v>
+        <v>1.07090970974021</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -456,37 +456,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.073887812894444</v>
+        <v>1.052009039220627</v>
       </c>
       <c r="D3">
-        <v>1.072835757304792</v>
+        <v>1.062861154903268</v>
       </c>
       <c r="E3">
-        <v>1.077505242709076</v>
+        <v>1.058300067795976</v>
       </c>
       <c r="F3">
-        <v>1.087588028979666</v>
+        <v>1.066968195940577</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.062110832322892</v>
+        <v>1.073956036144461</v>
       </c>
       <c r="J3">
-        <v>1.078463321328203</v>
+        <v>1.071175744198593</v>
       </c>
       <c r="K3">
-        <v>1.075348049449877</v>
+        <v>1.072748259883684</v>
       </c>
       <c r="L3">
-        <v>1.080006068472967</v>
+        <v>1.068237615281675</v>
       </c>
       <c r="M3">
-        <v>1.090064456341428</v>
+        <v>1.076810332831422</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -494,37 +494,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.074772557995499</v>
+        <v>1.056453711611254</v>
       </c>
       <c r="D4">
-        <v>1.073547145343367</v>
+        <v>1.066434813717757</v>
       </c>
       <c r="E4">
-        <v>1.078314015975194</v>
+        <v>1.062285377386825</v>
       </c>
       <c r="F4">
-        <v>1.088462685324938</v>
+        <v>1.071205092727207</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.062452409196289</v>
+        <v>1.075979787547362</v>
       </c>
       <c r="J4">
-        <v>1.079125210988189</v>
+        <v>1.074515831133253</v>
       </c>
       <c r="K4">
-        <v>1.07593972395369</v>
+        <v>1.075792471829218</v>
       </c>
       <c r="L4">
-        <v>1.080695480968981</v>
+        <v>1.071685987602447</v>
       </c>
       <c r="M4">
-        <v>1.090820836773028</v>
+        <v>1.080513873207214</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -532,37 +532,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.075144186420541</v>
+        <v>1.058291971388571</v>
       </c>
       <c r="D5">
-        <v>1.073845925778154</v>
+        <v>1.067913204574547</v>
       </c>
       <c r="E5">
-        <v>1.078653661465731</v>
+        <v>1.063933750649425</v>
       </c>
       <c r="F5">
-        <v>1.088830119571593</v>
+        <v>1.072958378319186</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.062595538018972</v>
+        <v>1.076813872060733</v>
       </c>
       <c r="J5">
-        <v>1.079403029489043</v>
+        <v>1.075895697944717</v>
       </c>
       <c r="K5">
-        <v>1.076188034622841</v>
+        <v>1.077049869784743</v>
       </c>
       <c r="L5">
-        <v>1.08098481206655</v>
+        <v>1.073110448366436</v>
       </c>
       <c r="M5">
-        <v>1.09113841655431</v>
+        <v>1.08204480861155</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -570,37 +570,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.075206565963697</v>
+        <v>1.058598894601329</v>
       </c>
       <c r="D6">
-        <v>1.073896075607804</v>
+        <v>1.068160062482318</v>
       </c>
       <c r="E6">
-        <v>1.078710668312866</v>
+        <v>1.064208974089981</v>
       </c>
       <c r="F6">
-        <v>1.0888917976445</v>
+        <v>1.073251168911675</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.062619542485075</v>
+        <v>1.076952961694544</v>
       </c>
       <c r="J6">
-        <v>1.079449650768316</v>
+        <v>1.076125993700957</v>
       </c>
       <c r="K6">
-        <v>1.076229702013603</v>
+        <v>1.077259711626782</v>
       </c>
       <c r="L6">
-        <v>1.081033362971675</v>
+        <v>1.073348178375211</v>
       </c>
       <c r="M6">
-        <v>1.091191716133436</v>
+        <v>1.082300371266655</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -608,37 +608,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.074777524956682</v>
+        <v>1.056478391359878</v>
       </c>
       <c r="D7">
-        <v>1.073551138785309</v>
+        <v>1.066454660630039</v>
       </c>
       <c r="E7">
-        <v>1.07831855575399</v>
+        <v>1.062307507464231</v>
       </c>
       <c r="F7">
-        <v>1.088467596058661</v>
+        <v>1.071228627914088</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.062454323534629</v>
+        <v>1.075990997216834</v>
       </c>
       <c r="J7">
-        <v>1.079128924935703</v>
+        <v>1.074534362867784</v>
       </c>
       <c r="K7">
-        <v>1.075943043575092</v>
+        <v>1.075809359745983</v>
       </c>
       <c r="L7">
-        <v>1.080699348975789</v>
+        <v>1.071705118798856</v>
       </c>
       <c r="M7">
-        <v>1.090825081865265</v>
+        <v>1.080534430172541</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -646,37 +646,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.072981485868489</v>
+        <v>1.047353525742452</v>
       </c>
       <c r="D8">
-        <v>1.072106912035172</v>
+        <v>1.059119469035953</v>
       </c>
       <c r="E8">
-        <v>1.076676496643899</v>
+        <v>1.054126204768533</v>
       </c>
       <c r="F8">
-        <v>1.086692186202848</v>
+        <v>1.062533801725904</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.061759738929664</v>
+        <v>1.071826241652988</v>
       </c>
       <c r="J8">
-        <v>1.077784598173006</v>
+        <v>1.067671924886132</v>
       </c>
       <c r="K8">
-        <v>1.074741204604064</v>
+        <v>1.069554028624948</v>
       </c>
       <c r="L8">
-        <v>1.079298986533322</v>
+        <v>1.064619713752767</v>
       </c>
       <c r="M8">
-        <v>1.089289181016534</v>
+        <v>1.072928446888404</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -684,37 +684,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.069806004645033</v>
+        <v>1.030166791463775</v>
       </c>
       <c r="D9">
-        <v>1.069552508372835</v>
+        <v>1.045322183857734</v>
       </c>
       <c r="E9">
-        <v>1.07377097695237</v>
+        <v>1.038724514423249</v>
       </c>
       <c r="F9">
-        <v>1.083554599238296</v>
+        <v>1.046193827641379</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.060520557561419</v>
+        <v>1.063886676677207</v>
       </c>
       <c r="J9">
-        <v>1.075401311360129</v>
+        <v>1.054697479333943</v>
       </c>
       <c r="K9">
-        <v>1.072609382870748</v>
+        <v>1.057720376257273</v>
       </c>
       <c r="L9">
-        <v>1.076815071582798</v>
+        <v>1.051219072768086</v>
       </c>
       <c r="M9">
-        <v>1.086569471428186</v>
+        <v>1.05857940396151</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -722,37 +722,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.067681504702727</v>
+        <v>1.017832014744874</v>
       </c>
       <c r="D10">
-        <v>1.06784293774621</v>
+        <v>1.035438369798392</v>
       </c>
       <c r="E10">
-        <v>1.071825569370158</v>
+        <v>1.027680465876389</v>
       </c>
       <c r="F10">
-        <v>1.081456427884367</v>
+        <v>1.034496047731456</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.059684032647645</v>
+        <v>1.058126513891972</v>
       </c>
       <c r="J10">
-        <v>1.073802486140461</v>
+        <v>1.04535557451978</v>
       </c>
       <c r="K10">
-        <v>1.071178494396455</v>
+        <v>1.049195954423603</v>
       </c>
       <c r="L10">
-        <v>1.075147868078263</v>
+        <v>1.041567301568039</v>
       </c>
       <c r="M10">
-        <v>1.084747108415519</v>
+        <v>1.048269198849134</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -760,37 +760,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.066759709130938</v>
+        <v>1.01224842217865</v>
       </c>
       <c r="D11">
-        <v>1.067101044037986</v>
+        <v>1.03097007757821</v>
       </c>
       <c r="E11">
-        <v>1.070981122375452</v>
+        <v>1.022684538134125</v>
       </c>
       <c r="F11">
-        <v>1.080546291927055</v>
+        <v>1.029208851726333</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.059319304154323</v>
+        <v>1.05550505487949</v>
       </c>
       <c r="J11">
-        <v>1.073107750589969</v>
+        <v>1.041120382969073</v>
       </c>
       <c r="K11">
-        <v>1.070556554809427</v>
+        <v>1.045330658996309</v>
       </c>
       <c r="L11">
-        <v>1.074423211847766</v>
+        <v>1.037190972302872</v>
       </c>
       <c r="M11">
-        <v>1.083955747728346</v>
+        <v>1.043600181920664</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -798,37 +798,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.066417024672263</v>
+        <v>1.010134597739448</v>
       </c>
       <c r="D12">
-        <v>1.066825220532879</v>
+        <v>1.029279494616019</v>
       </c>
       <c r="E12">
-        <v>1.070667139389561</v>
+        <v>1.020793806882212</v>
       </c>
       <c r="F12">
-        <v>1.080207977841417</v>
+        <v>1.027208550676898</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.05918344780693</v>
+        <v>1.054510594373508</v>
       </c>
       <c r="J12">
-        <v>1.07284932377171</v>
+        <v>1.039516151241939</v>
       </c>
       <c r="K12">
-        <v>1.070325180092357</v>
+        <v>1.043866451910392</v>
       </c>
       <c r="L12">
-        <v>1.074153623743958</v>
+        <v>1.035533186529612</v>
       </c>
       <c r="M12">
-        <v>1.083661454673407</v>
+        <v>1.0418324052215</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -836,37 +836,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.066490544823996</v>
+        <v>1.010589881806764</v>
       </c>
       <c r="D13">
-        <v>1.066884397056838</v>
+        <v>1.029643571099059</v>
       </c>
       <c r="E13">
-        <v>1.070734504288631</v>
+        <v>1.021201010572898</v>
       </c>
       <c r="F13">
-        <v>1.08028055873841</v>
+        <v>1.027639322489753</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.059212606699472</v>
+        <v>1.054724875915559</v>
       </c>
       <c r="J13">
-        <v>1.072904774082825</v>
+        <v>1.039861715643836</v>
       </c>
       <c r="K13">
-        <v>1.070374827062022</v>
+        <v>1.044181857455414</v>
       </c>
       <c r="L13">
-        <v>1.074211470341856</v>
+        <v>1.035890290993414</v>
       </c>
       <c r="M13">
-        <v>1.08372459730911</v>
+        <v>1.042213163101007</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -874,37 +874,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.066731388654238</v>
+        <v>1.012074526446646</v>
       </c>
       <c r="D14">
-        <v>1.067078249533466</v>
+        <v>1.030830978800316</v>
       </c>
       <c r="E14">
-        <v>1.070955174963404</v>
+        <v>1.022528982215198</v>
       </c>
       <c r="F14">
-        <v>1.080518331898399</v>
+        <v>1.029044267806497</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.059308081995592</v>
+        <v>1.055423285482844</v>
       </c>
       <c r="J14">
-        <v>1.073086396550685</v>
+        <v>1.04098842676554</v>
       </c>
       <c r="K14">
-        <v>1.070537436647543</v>
+        <v>1.045210222168591</v>
       </c>
       <c r="L14">
-        <v>1.074400936183084</v>
+        <v>1.037054612854909</v>
       </c>
       <c r="M14">
-        <v>1.083931428475725</v>
+        <v>1.04345475741161</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -912,37 +912,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.066879742038351</v>
+        <v>1.012983878471602</v>
       </c>
       <c r="D15">
-        <v>1.067197655012168</v>
+        <v>1.031558409345649</v>
       </c>
       <c r="E15">
-        <v>1.071091095149668</v>
+        <v>1.023342455665695</v>
       </c>
       <c r="F15">
-        <v>1.080664798587898</v>
+        <v>1.029904979684105</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.059366857034231</v>
+        <v>1.055850799519447</v>
       </c>
       <c r="J15">
-        <v>1.07319825080861</v>
+        <v>1.041678429274348</v>
       </c>
       <c r="K15">
-        <v>1.070637578109974</v>
+        <v>1.045839986149397</v>
       </c>
       <c r="L15">
-        <v>1.074517616705372</v>
+        <v>1.037767636304568</v>
       </c>
       <c r="M15">
-        <v>1.08405881789128</v>
+        <v>1.044215217869994</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -950,37 +950,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.067742641167735</v>
+        <v>1.018197189491062</v>
       </c>
       <c r="D16">
-        <v>1.067892139843755</v>
+        <v>1.035730734134259</v>
       </c>
       <c r="E16">
-        <v>1.071881568323864</v>
+        <v>1.028007285374326</v>
       </c>
       <c r="F16">
-        <v>1.081516796045176</v>
+        <v>1.034842012804672</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.059708185370366</v>
+        <v>1.05829767690469</v>
       </c>
       <c r="J16">
-        <v>1.073848541710122</v>
+        <v>1.045632436133555</v>
       </c>
       <c r="K16">
-        <v>1.071219720444573</v>
+        <v>1.049448622215158</v>
       </c>
       <c r="L16">
-        <v>1.075195902761954</v>
+        <v>1.04185337643964</v>
       </c>
       <c r="M16">
-        <v>1.084799580167481</v>
+        <v>1.048574527592466</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -988,37 +988,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.068283408497727</v>
+        <v>1.021400162069533</v>
       </c>
       <c r="D17">
-        <v>1.068327329676091</v>
+        <v>1.03829575360511</v>
       </c>
       <c r="E17">
-        <v>1.072376851859118</v>
+        <v>1.030874235479959</v>
       </c>
       <c r="F17">
-        <v>1.082050794807497</v>
+        <v>1.037877415274311</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.05992161799101</v>
+        <v>1.05979738727046</v>
       </c>
       <c r="J17">
-        <v>1.074255796597578</v>
+        <v>1.04806009629966</v>
       </c>
       <c r="K17">
-        <v>1.071584248966395</v>
+        <v>1.051664060786165</v>
       </c>
       <c r="L17">
-        <v>1.075620634289883</v>
+        <v>1.044361749351415</v>
       </c>
       <c r="M17">
-        <v>1.085263629947494</v>
+        <v>1.051252383827138</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1026,37 +1026,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.068598648692313</v>
+        <v>1.023245249302926</v>
       </c>
       <c r="D18">
-        <v>1.068581010806738</v>
+        <v>1.039773882133346</v>
       </c>
       <c r="E18">
-        <v>1.072665542816394</v>
+        <v>1.032526066326932</v>
       </c>
       <c r="F18">
-        <v>1.082362111980109</v>
+        <v>1.039626721476461</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.060045867889656</v>
+        <v>1.060659982221963</v>
       </c>
       <c r="J18">
-        <v>1.074493107040401</v>
+        <v>1.049457956044398</v>
       </c>
       <c r="K18">
-        <v>1.071796645346099</v>
+        <v>1.052939653860205</v>
       </c>
       <c r="L18">
-        <v>1.075868108448335</v>
+        <v>1.045806021678747</v>
       </c>
       <c r="M18">
-        <v>1.085534084162106</v>
+        <v>1.052794791356384</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1064,37 +1064,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.068706107095043</v>
+        <v>1.023870545369466</v>
       </c>
       <c r="D19">
-        <v>1.068667482912433</v>
+        <v>1.040274903932053</v>
       </c>
       <c r="E19">
-        <v>1.072763945317337</v>
+        <v>1.033085917997782</v>
       </c>
       <c r="F19">
-        <v>1.082468236952684</v>
+        <v>1.040219681606291</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.060088192987352</v>
+        <v>1.060952087907024</v>
       </c>
       <c r="J19">
-        <v>1.074573984167787</v>
+        <v>1.049931582884435</v>
       </c>
       <c r="K19">
-        <v>1.071869028673827</v>
+        <v>1.053371841794981</v>
       </c>
       <c r="L19">
-        <v>1.075952446046704</v>
+        <v>1.046295363449686</v>
       </c>
       <c r="M19">
-        <v>1.085626265238113</v>
+        <v>1.053317476125764</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1102,37 +1102,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.068225407977327</v>
+        <v>1.021058931322289</v>
       </c>
       <c r="D20">
-        <v>1.068280654278549</v>
+        <v>1.038022430840993</v>
       </c>
       <c r="E20">
-        <v>1.072323733311102</v>
+        <v>1.03056877007163</v>
       </c>
       <c r="F20">
-        <v>1.081993517903728</v>
+        <v>1.037553958216408</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.059898743718733</v>
+        <v>1.059637751400588</v>
       </c>
       <c r="J20">
-        <v>1.074212126292803</v>
+        <v>1.047801526337997</v>
       </c>
       <c r="K20">
-        <v>1.071545162015133</v>
+        <v>1.051428101502099</v>
       </c>
       <c r="L20">
-        <v>1.075575092025228</v>
+        <v>1.044094589112463</v>
       </c>
       <c r="M20">
-        <v>1.085213864409867</v>
+        <v>1.050967115184489</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1140,37 +1140,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.066660474171745</v>
+        <v>1.011638464492814</v>
       </c>
       <c r="D21">
-        <v>1.067021171784081</v>
+        <v>1.030482190685206</v>
       </c>
       <c r="E21">
-        <v>1.070890201773277</v>
+        <v>1.02213891957895</v>
       </c>
       <c r="F21">
-        <v>1.080448320557786</v>
+        <v>1.028631577717256</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.05927997741466</v>
+        <v>1.055218207607839</v>
       </c>
       <c r="J21">
-        <v>1.073032923549054</v>
+        <v>1.040657518714106</v>
       </c>
       <c r="K21">
-        <v>1.070489562116988</v>
+        <v>1.044908200060582</v>
       </c>
       <c r="L21">
-        <v>1.074345154816121</v>
+        <v>1.036712661264638</v>
       </c>
       <c r="M21">
-        <v>1.08387053146547</v>
+        <v>1.04309008733936</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1178,37 +1178,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.065674865204817</v>
+        <v>1.00548299007078</v>
       </c>
       <c r="D22">
-        <v>1.06622782957395</v>
+        <v>1.025561294204991</v>
       </c>
       <c r="E22">
-        <v>1.06998704187309</v>
+        <v>1.016634397181683</v>
       </c>
       <c r="F22">
-        <v>1.079475349333226</v>
+        <v>1.022809310895742</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.058888734635826</v>
+        <v>1.052318550000609</v>
       </c>
       <c r="J22">
-        <v>1.07228936216628</v>
+        <v>1.035984401314975</v>
       </c>
       <c r="K22">
-        <v>1.069823787059049</v>
+        <v>1.040642832959756</v>
       </c>
       <c r="L22">
-        <v>1.073569420110345</v>
+        <v>1.031883372284793</v>
       </c>
       <c r="M22">
-        <v>1.08302391716429</v>
+        <v>1.037942060219689</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1216,37 +1216,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.066197516137464</v>
+        <v>1.008769407032568</v>
       </c>
       <c r="D23">
-        <v>1.066648534942496</v>
+        <v>1.028187954223994</v>
       </c>
       <c r="E23">
-        <v>1.070466000738366</v>
+        <v>1.019572886735487</v>
       </c>
       <c r="F23">
-        <v>1.079991278906503</v>
+        <v>1.025917062552522</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.059096349427042</v>
+        <v>1.053867768661095</v>
       </c>
       <c r="J23">
-        <v>1.072683743736633</v>
+        <v>1.038479837255227</v>
       </c>
       <c r="K23">
-        <v>1.070176925543544</v>
+        <v>1.042920570326694</v>
       </c>
       <c r="L23">
-        <v>1.073980883550571</v>
+        <v>1.034462251912145</v>
       </c>
       <c r="M23">
-        <v>1.083472915763462</v>
+        <v>1.040690664706869</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1254,37 +1254,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.068251616472294</v>
+        <v>1.021213190105811</v>
       </c>
       <c r="D24">
-        <v>1.068301745368639</v>
+        <v>1.038145989082837</v>
       </c>
       <c r="E24">
-        <v>1.072347735912627</v>
+        <v>1.030706859607132</v>
       </c>
       <c r="F24">
-        <v>1.082019399350401</v>
+        <v>1.037700179803607</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.059909080364468</v>
+        <v>1.059709921439373</v>
       </c>
       <c r="J24">
-        <v>1.07423185974777</v>
+        <v>1.047918418885049</v>
       </c>
       <c r="K24">
-        <v>1.071562824426808</v>
+        <v>1.05153477258186</v>
       </c>
       <c r="L24">
-        <v>1.075595671431293</v>
+        <v>1.044215365287389</v>
       </c>
       <c r="M24">
-        <v>1.085236351987877</v>
+        <v>1.05109607598748</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1292,37 +1292,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.070628239895182</v>
+        <v>1.034753954649839</v>
       </c>
       <c r="D25">
-        <v>1.070214033709292</v>
+        <v>1.04900200516511</v>
       </c>
       <c r="E25">
-        <v>1.074523579055632</v>
+        <v>1.04283393808242</v>
       </c>
       <c r="F25">
-        <v>1.084366852156094</v>
+        <v>1.050550330819476</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.060842737544398</v>
+        <v>1.066016522360247</v>
       </c>
       <c r="J25">
-        <v>1.07601918444925</v>
+        <v>1.058165761670191</v>
       </c>
       <c r="K25">
-        <v>1.07316219712118</v>
+        <v>1.060884436285074</v>
       </c>
       <c r="L25">
-        <v>1.077459185516622</v>
+        <v>1.054801807251115</v>
       </c>
       <c r="M25">
-        <v>1.087274184320544</v>
+        <v>1.062411513464935</v>
       </c>
     </row>
   </sheetData>
